--- a/admin/timeSheet.xlsx
+++ b/admin/timeSheet.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>Timesheet</t>
   </si>
@@ -42,6 +42,9 @@
   </si>
   <si>
     <t>breaks [h]</t>
+  </si>
+  <si>
+    <t>Total</t>
   </si>
 </sst>
 </file>
@@ -365,7 +368,7 @@
   <dimension ref="A1:E40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -417,222 +420,371 @@
       <c r="A4" s="1">
         <v>42888</v>
       </c>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
+      <c r="B4" s="3">
+        <v>0.3888888888888889</v>
+      </c>
+      <c r="C4" s="3">
+        <v>0.76388888888888884</v>
+      </c>
+      <c r="D4" s="3">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="E4" s="2">
+        <f t="shared" ref="E4:E18" si="0">C4-B4-D4</f>
+        <v>0.33333333333333326</v>
+      </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" s="1">
+        <v>42889</v>
+      </c>
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
       <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
+      <c r="E5" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" s="1">
+        <v>42890</v>
+      </c>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
+      <c r="E6" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" s="1">
+        <v>42891</v>
+      </c>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
+      <c r="E7" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" s="1">
+        <v>42892</v>
+      </c>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
+      <c r="E8" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" s="1">
+        <v>42893</v>
+      </c>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
+      <c r="E9" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" s="1">
+        <v>42894</v>
+      </c>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
+      <c r="E10" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" s="1">
+        <v>42895</v>
+      </c>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
+      <c r="E11" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" s="1">
+        <v>42896</v>
+      </c>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
+      <c r="E12" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" s="1">
+        <v>42897</v>
+      </c>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
+      <c r="E13" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14" s="1">
+        <v>42898</v>
+      </c>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
+      <c r="E14" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15" s="1">
+        <v>42899</v>
+      </c>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
+      <c r="E15" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16" s="1">
+        <v>42900</v>
+      </c>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
-    </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="E16" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17" s="1">
+        <v>42901</v>
+      </c>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
       <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
-    </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="E17" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18" s="1">
+        <v>42902</v>
+      </c>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
       <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
-    </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="E18" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19" s="1">
+        <v>42903</v>
+      </c>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
       <c r="D19" s="3"/>
       <c r="E19" s="3"/>
     </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A20" s="1">
+        <v>42904</v>
+      </c>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
       <c r="D20" s="3"/>
       <c r="E20" s="3"/>
     </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A21" s="1">
+        <v>42905</v>
+      </c>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
       <c r="D21" s="3"/>
       <c r="E21" s="3"/>
     </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A22" s="1">
+        <v>42906</v>
+      </c>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
       <c r="D22" s="3"/>
       <c r="E22" s="3"/>
     </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A23" s="1">
+        <v>42907</v>
+      </c>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
       <c r="D23" s="3"/>
       <c r="E23" s="3"/>
     </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A24" s="1">
+        <v>42908</v>
+      </c>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
       <c r="D24" s="3"/>
       <c r="E24" s="3"/>
     </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A25" s="1">
+        <v>42909</v>
+      </c>
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
       <c r="D25" s="3"/>
       <c r="E25" s="3"/>
     </row>
-    <row r="26" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A26" s="1">
+        <v>42910</v>
+      </c>
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
       <c r="D26" s="3"/>
       <c r="E26" s="3"/>
     </row>
-    <row r="27" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A27" s="1">
+        <v>42911</v>
+      </c>
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
       <c r="D27" s="3"/>
       <c r="E27" s="3"/>
     </row>
-    <row r="28" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A28" s="1">
+        <v>42912</v>
+      </c>
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
       <c r="D28" s="3"/>
       <c r="E28" s="3"/>
     </row>
-    <row r="29" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A29" s="1">
+        <v>42913</v>
+      </c>
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
       <c r="D29" s="3"/>
       <c r="E29" s="3"/>
     </row>
-    <row r="30" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A30" s="1">
+        <v>42914</v>
+      </c>
       <c r="B30" s="3"/>
       <c r="C30" s="3"/>
       <c r="D30" s="3"/>
       <c r="E30" s="3"/>
     </row>
-    <row r="31" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A31" s="1">
+        <v>42915</v>
+      </c>
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
       <c r="D31" s="3"/>
       <c r="E31" s="3"/>
     </row>
-    <row r="32" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A32" s="1">
+        <v>42916</v>
+      </c>
       <c r="B32" s="3"/>
       <c r="C32" s="3"/>
       <c r="D32" s="3"/>
       <c r="E32" s="3"/>
     </row>
-    <row r="33" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B33" s="3"/>
-      <c r="C33" s="3"/>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A33" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B33" s="3">
+        <f>AVERAGE(B3:B32)</f>
+        <v>0.4236111111111111</v>
+      </c>
+      <c r="C33" s="3">
+        <f>AVERAGE(C3:C32)</f>
+        <v>0.76527777777777772</v>
+      </c>
       <c r="D33" s="3"/>
-      <c r="E33" s="3"/>
-    </row>
-    <row r="34" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="E33" s="3">
+        <f>SUM(E3:E32)</f>
+        <v>0.59999999999999987</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A34" s="1"/>
       <c r="B34" s="3"/>
       <c r="C34" s="3"/>
       <c r="D34" s="3"/>
       <c r="E34" s="3"/>
     </row>
-    <row r="35" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A35" s="1"/>
       <c r="B35" s="3"/>
       <c r="C35" s="3"/>
       <c r="D35" s="3"/>
       <c r="E35" s="3"/>
     </row>
-    <row r="36" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B36" s="3"/>
       <c r="C36" s="3"/>
       <c r="D36" s="3"/>
       <c r="E36" s="3"/>
     </row>
-    <row r="37" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B37" s="3"/>
       <c r="C37" s="3"/>
       <c r="D37" s="3"/>
       <c r="E37" s="3"/>
     </row>
-    <row r="38" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B38" s="3"/>
       <c r="C38" s="3"/>
       <c r="D38" s="3"/>
       <c r="E38" s="3"/>
     </row>
-    <row r="39" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B39" s="3"/>
       <c r="C39" s="3"/>
       <c r="D39" s="3"/>
       <c r="E39" s="3"/>
     </row>
-    <row r="40" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B40" s="3"/>
       <c r="C40" s="3"/>
       <c r="D40" s="3"/>

--- a/admin/timeSheet.xlsx
+++ b/admin/timeSheet.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="440" windowWidth="27960" windowHeight="17560" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="440" windowWidth="28800" windowHeight="17560" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>Timesheet</t>
   </si>
@@ -46,13 +46,16 @@
   <si>
     <t>Total</t>
   </si>
+  <si>
+    <t>ARTORG</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="167" formatCode="h:mm"/>
+    <numFmt numFmtId="164" formatCode="h:mm"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -86,7 +89,7 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -368,7 +371,7 @@
   <dimension ref="A1:E40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -380,6 +383,9 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
+      <c r="B1" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
@@ -474,12 +480,14 @@
       <c r="A8" s="1">
         <v>42892</v>
       </c>
-      <c r="B8" s="3"/>
+      <c r="B8" s="3">
+        <v>0.375</v>
+      </c>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
       <c r="E8" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>-0.375</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
@@ -734,7 +742,7 @@
       </c>
       <c r="B33" s="3">
         <f>AVERAGE(B3:B32)</f>
-        <v>0.4236111111111111</v>
+        <v>0.40740740740740744</v>
       </c>
       <c r="C33" s="3">
         <f>AVERAGE(C3:C32)</f>
@@ -743,7 +751,7 @@
       <c r="D33" s="3"/>
       <c r="E33" s="3">
         <f>SUM(E3:E32)</f>
-        <v>0.59999999999999987</v>
+        <v>0.22499999999999987</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.2">

--- a/admin/timeSheet.xlsx
+++ b/admin/timeSheet.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="440" windowWidth="28800" windowHeight="17560" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="440" windowWidth="27960" windowHeight="17560" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -371,7 +371,7 @@
   <dimension ref="A1:E40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -483,23 +483,31 @@
       <c r="B8" s="3">
         <v>0.375</v>
       </c>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
+      <c r="C8" s="3">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="D8" s="3">
+        <v>4.1666666666666664E-2</v>
+      </c>
       <c r="E8" s="2">
         <f t="shared" si="0"/>
-        <v>-0.375</v>
+        <v>0.29166666666666669</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>42893</v>
       </c>
-      <c r="B9" s="3"/>
+      <c r="B9" s="3">
+        <v>0.40277777777777773</v>
+      </c>
       <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
+      <c r="D9" s="3">
+        <v>4.1666666666666664E-2</v>
+      </c>
       <c r="E9" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>-0.44444444444444442</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
@@ -742,16 +750,16 @@
       </c>
       <c r="B33" s="3">
         <f>AVERAGE(B3:B32)</f>
-        <v>0.40740740740740744</v>
+        <v>0.40625</v>
       </c>
       <c r="C33" s="3">
         <f>AVERAGE(C3:C32)</f>
-        <v>0.76527777777777772</v>
+        <v>0.74629629629629635</v>
       </c>
       <c r="D33" s="3"/>
       <c r="E33" s="3">
         <f>SUM(E3:E32)</f>
-        <v>0.22499999999999987</v>
+        <v>0.44722222222222219</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.2">
